--- a/Data/Bank_churn/Images/XGB_ValidationCurve_max_depth.xlsx
+++ b/Data/Bank_churn/Images/XGB_ValidationCurve_max_depth.xlsx
@@ -471,7 +471,7 @@
         <v>0.87</v>
       </c>
       <c r="D2" t="n">
-        <v>7.71</v>
+        <v>11.12</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -488,7 +488,7 @@
         <v>0.87</v>
       </c>
       <c r="D3" t="n">
-        <v>11.29</v>
+        <v>16.53</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
@@ -505,7 +505,7 @@
         <v>0.87</v>
       </c>
       <c r="D4" t="n">
-        <v>14.35</v>
+        <v>20.99</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -522,7 +522,7 @@
         <v>0.87</v>
       </c>
       <c r="D5" t="n">
-        <v>11.86</v>
+        <v>16.97</v>
       </c>
       <c r="E5" t="n">
         <v>0.02</v>
